--- a/src/main/resources/template/sysuser.xlsx
+++ b/src/main/resources/template/sysuser.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ArchivesManagementSystem\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F19ED2D-A181-46AF-A4FC-A10905C7B469}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72056D67-3BE4-4E12-B3E7-F841034D4414}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1332" yWindow="3300" windowWidth="20868" windowHeight="9180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -47,10 +47,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>管理员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用户表测试</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -63,19 +59,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>齐秦</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王祖贤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>true</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>false</t>
+    <t>是</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,28 +389,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="12" customWidth="1"/>
-    <col min="5" max="5" width="10.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -443,55 +427,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>324</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2313</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>21312</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
